--- a/data/trans_dic/P24_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_6_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia</t>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 18,18</t>
+          <t>3,39; 31,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 20,68</t>
+          <t>2,94; 23,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 19,57</t>
+          <t>6,74; 35,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 20,77</t>
+          <t>0,0; 23,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,38; 35,34</t>
+          <t>5,5; 32,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 26,4</t>
+          <t>9,12; 32,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 35,05</t>
+          <t>7,46; 31,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 20,99</t>
+          <t>8,19; 31,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 24,02</t>
+          <t>7,66; 29,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 20,02</t>
+          <t>5,99; 27,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 23,27</t>
+          <t>9,51; 27,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 16,74</t>
+          <t>7,68; 23,15</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 28,51</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 22,43</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 24,72</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>26,09%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>18,17%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>17,54%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>19,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27,06%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>30,88%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 15,95</t>
+          <t>2,23; 19,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 16,0</t>
+          <t>2,9; 21,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,61; 26,06</t>
+          <t>8,62; 36,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,6; 45,32</t>
+          <t>13,34; 57,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,53; 38,18</t>
+          <t>9,76; 56,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,07; 36,51</t>
+          <t>22,35; 48,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 26,69</t>
+          <t>13,84; 38,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 30,42</t>
+          <t>9,72; 29,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 25,22</t>
+          <t>13,15; 38,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,12; 25,04</t>
+          <t>24,39; 50,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,63; 23,55</t>
+          <t>14,0; 31,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,62; 34,1</t>
+          <t>10,43; 25,79</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 27,13</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15,7; 43,29</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17,51; 47,24</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>26,39%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 29,08</t>
+          <t>13,5; 35,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,06; 27,23</t>
+          <t>10,21; 30,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 29,25</t>
+          <t>12,93; 34,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,4; 25,8</t>
+          <t>11,51; 34,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,37; 38,63</t>
+          <t>9,28; 29,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,59; 37,2</t>
+          <t>21,2; 39,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,11; 31,02</t>
+          <t>22,67; 41,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,74; 42,83</t>
+          <t>16,88; 33,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,42; 31,91</t>
+          <t>28,03; 47,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 29,6</t>
+          <t>25,94; 46,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 27,45</t>
+          <t>20,85; 36,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,79; 31,84</t>
+          <t>19,31; 33,36</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 31,17</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>23,54; 38,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21,18; 35,84</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>42,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>49,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>34,83%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>37,48%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>36,08%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 28,49</t>
+          <t>13,53; 32,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,87; 31,45</t>
+          <t>17,1; 36,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 32,43</t>
+          <t>20,86; 41,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,11; 34,61</t>
+          <t>19,84; 40,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 43,16</t>
+          <t>26,95; 48,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,95; 44,28</t>
+          <t>28,44; 47,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,96; 51,47</t>
+          <t>32,91; 52,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,67; 53,04</t>
+          <t>34,62; 55,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,19; 34,7</t>
+          <t>32,93; 52,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,76; 36,13</t>
+          <t>40,21; 58,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,12; 40,19</t>
+          <t>23,62; 36,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,93; 42,5</t>
+          <t>28,8; 42,22</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>30,05; 45,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>29,3; 43,24</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>36,17; 50,68</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,43%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>52,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>29,66%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>40,21%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>37,42%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,14; 31,02</t>
+          <t>9,61; 28,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,19; 28,63</t>
+          <t>6,79; 24,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 31,76</t>
+          <t>9,44; 28,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,68; 38,2</t>
+          <t>19,46; 43,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,99; 42,75</t>
+          <t>19,55; 43,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,3; 54,92</t>
+          <t>21,66; 47,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,95; 62,0</t>
+          <t>27,0; 54,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,28; 63,79</t>
+          <t>32,68; 60,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,95; 33,89</t>
+          <t>38,48; 66,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,64; 39,01</t>
+          <t>31,21; 60,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31,21; 44,13</t>
+          <t>18,05; 34,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,26; 49,6</t>
+          <t>17,51; 33,23</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>21,33; 38,48</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>31,53; 49,9</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>28,78; 46,74</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>49,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>45,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>28,96%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>39,99%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>40,68%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>52,41%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 29,07</t>
+          <t>6,63; 27,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,77; 25,94</t>
+          <t>9,87; 36,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,77; 37,31</t>
+          <t>15,71; 44,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,65; 39,83</t>
+          <t>21,54; 50,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,96; 53,56</t>
+          <t>29,39; 61,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,16; 58,65</t>
+          <t>25,96; 56,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,56; 59,2</t>
+          <t>22,58; 51,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,42; 61,37</t>
+          <t>35,14; 65,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,22; 40,14</t>
+          <t>30,56; 61,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,84; 41,55</t>
+          <t>42,09; 76,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,78; 48,09</t>
+          <t>18,57; 38,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,73; 49,25</t>
+          <t>19,71; 39,75</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>29,97; 50,83</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 51,97</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>40,4; 66,39</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>25,26%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>34,92%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,14; 20,34</t>
+          <t>13,21; 21,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,49; 20,13</t>
+          <t>12,5; 21,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,03; 23,0</t>
+          <t>17,78; 27,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,9; 25,85</t>
+          <t>20,16; 32,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,11; 36,37</t>
+          <t>22,1; 36,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,37; 37,14</t>
+          <t>28,52; 37,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>30,19; 38,04</t>
+          <t>27,89; 37,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,28; 39,81</t>
+          <t>28,33; 37,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,1; 28,17</t>
+          <t>31,48; 41,32</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,73; 28,1</t>
+          <t>36,25; 48,16</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,42; 29,66</t>
+          <t>22,21; 28,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,13; 31,64</t>
+          <t>21,88; 28,26</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 31,58</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>27,12; 34,7</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>30,63; 39,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11613</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10392</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17773</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9903</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20690</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22907</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24065</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22373</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21181</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22165</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34520</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34457</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>40147</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>31083</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>42854</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2923; 26831</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3146; 25136</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7122; 37176</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 29705</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8016; 47500</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10718; 38267</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10001; 42081</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9833; 37435</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9380; 36041</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8710; 39780</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19380; 56139</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18506; 55787</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24739; 64372</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14821; 56104</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>24034; 72016</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11234</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15490</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27427</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44706</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59704</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>46751</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43080</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24095</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31232</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60733</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>57985</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>58569</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>51522</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>75939</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>120437</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3051; 26842</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4898; 35518</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12361; 51799</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20584; 88519</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22221; 128322</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29797; 65270</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22852; 62901</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12322; 37680</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16615; 48454</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39607; 82253</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37821; 86219</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34820; 86100</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>32229; 73286</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>44044; 121454</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>68300; 184259</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33296</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30245</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31508</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28922</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31722</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>64525</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>82197</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51389</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>74761</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>85327</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97821</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>112441</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>82897</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>103683</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>117049</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18864; 50271</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16539; 49102</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17374; 46837</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15559; 46545</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16730; 53928</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45658; 85659</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>59876; 109849</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35343; 69089</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56191; 94389</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>62172; 112015</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>74056; 128705</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>82289; 142136</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>60460; 107129</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>79017; 128282</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>88955; 150511</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34393</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47093</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>48307</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>45084</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>75399</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>72979</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>93993</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80540</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>73501</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>105249</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>107373</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>141085</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>128847</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>118585</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>180648</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22126; 52416</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>31924; 68059</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>33636; 66818</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>30995; 63501</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54271; 98409</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>54400; 91535</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>71866; 115491</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>63204; 100933</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56788; 91391</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>85553; 125290</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>83791; 130633</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>116677; 171013</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>103306; 156220</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>96310; 142107</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>149805; 209877</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25209</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22898</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23380</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>38205</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>46857</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>35067</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>45666</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>43619</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>48604</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>62307</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>60276</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>68564</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>66999</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>86809</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>109163</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13350; 39942</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10686; 39290</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12463; 37406</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23973; 53412</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30238; 66963</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22409; 49238</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31370; 63096</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30656; 57219</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35661; 61318</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>42772; 82354</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>43745; 82473</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>47899; 90917</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>48184; 86912</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>68064; 107713</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>83949; 136336</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13109</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>23401</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>24431</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31664</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>61747</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>42677</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>48098</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>52532</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>49997</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>120992</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>55785</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>71499</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>76963</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>81662</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>182738</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5979; 24705</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10791; 39700</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13721; 38849</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>19417; 45725</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>40513; 84486</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27781; 60705</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>31072; 71226</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>36947; 69167</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>33797; 68066</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>88724; 160988</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>36623; 76735</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>48656; 98152</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>57681; 97832</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>58695; 104332</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>140844; 231451</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>128853</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>149519</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>172827</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>198484</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>296118</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>284907</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>337097</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>274548</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>299277</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>456771</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>413760</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>486616</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>447375</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>497762</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>752890</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>99777; 162991</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>111375; 187329</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>135883; 212528</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>158539; 258880</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>231496; 387504</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>247578; 324994</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>288762; 385418</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>237305; 313306</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>259719; 340886</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>401704; 533663</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>360549; 465999</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>421606; 544493</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>391639; 505800</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>437005; 559267</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>660240; 853342</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>